--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/metrics/Trial_214__Reeval_Halton_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/metrics/Trial_214__Reeval_Halton_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5896,7 +5896,7 @@
                   <c:v>356.8751831054688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>351.8161315917969</c:v>
+                  <c:v>351.8161010742188</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>339.5486450195312</c:v>
@@ -5941,10 +5941,10 @@
                   <c:v>336.5386962890625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>358.9844970703125</c:v>
+                  <c:v>358.9844665527344</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>353.445068359375</c:v>
+                  <c:v>353.4450378417969</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>371.0884704589844</c:v>
@@ -6028,13 +6028,13 @@
                   <c:v>349.019287109375</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>356.9924621582031</c:v>
+                  <c:v>356.9924926757812</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>359.8175659179688</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>348.4598999023438</c:v>
+                  <c:v>348.4599304199219</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>357.0614013671875</c:v>
@@ -6061,7 +6061,7 @@
                   <c:v>339.7164916992188</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>354.4867553710938</c:v>
+                  <c:v>354.4867858886719</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>358.2011108398438</c:v>
@@ -6073,7 +6073,7 @@
                   <c:v>360.3008728027344</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>360.6539916992188</c:v>
+                  <c:v>360.6540222167969</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>359.7672729492188</c:v>
@@ -6082,7 +6082,7 @@
                   <c:v>358.7615966796875</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>359.4041442871094</c:v>
+                  <c:v>359.4041748046875</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>358.8228759765625</c:v>
@@ -6103,7 +6103,7 @@
                   <c:v>390.2847595214844</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>359.5167236328125</c:v>
+                  <c:v>359.5167541503906</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>341.7481079101562</c:v>
@@ -6118,7 +6118,7 @@
                   <c:v>354.0447387695312</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>332.0450744628906</c:v>
+                  <c:v>332.0450439453125</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>357.6728210449219</c:v>
@@ -6136,7 +6136,7 @@
                   <c:v>347.5564270019531</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>344.6287536621094</c:v>
+                  <c:v>344.6287231445312</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>345.02392578125</c:v>
@@ -6148,7 +6148,7 @@
                   <c:v>360.2747192382812</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>359.0806579589844</c:v>
+                  <c:v>359.0806274414062</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>353.7731018066406</c:v>
@@ -6160,7 +6160,7 @@
                   <c:v>357.2396545410156</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>355.0264892578125</c:v>
+                  <c:v>355.0265197753906</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>359.5080261230469</c:v>
@@ -6215,7 +6215,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6230,7 +6230,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6259,7 +6259,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6274,7 +6274,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6303,7 +6303,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6318,7 +6318,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6830,13 +6830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H787"/>
+  <dimension ref="A1:S787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6861,8 +6861,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>342.196</v>
       </c>
@@ -6887,8 +6893,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.506</v>
       </c>
@@ -6905,7 +6917,7 @@
         <v>355.369</v>
       </c>
       <c r="F3">
-        <v>351.8161315917969</v>
+        <v>351.8161010742188</v>
       </c>
       <c r="G3">
         <v>391</v>
@@ -6913,8 +6925,14 @@
       <c r="H3">
         <v>391</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="R3">
+        <v>391</v>
+      </c>
+      <c r="S3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>355.709</v>
       </c>
@@ -6934,13 +6952,19 @@
         <v>339.5486450195312</v>
       </c>
       <c r="G4">
+        <v>391</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>391</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>361.128</v>
       </c>
@@ -6965,8 +6989,14 @@
       <c r="H5">
         <v>391</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="R5">
+        <v>391</v>
+      </c>
+      <c r="S5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.345</v>
       </c>
@@ -6986,13 +7016,19 @@
         <v>358.9136352539062</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>391</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="S6">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>331.376</v>
       </c>
@@ -7017,8 +7053,14 @@
       <c r="H7">
         <v>391</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="R7">
+        <v>391</v>
+      </c>
+      <c r="S7">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>317.294</v>
       </c>
@@ -7038,7 +7080,7 @@
         <v>338.8379821777344</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>354.275</v>
       </c>
@@ -7058,7 +7100,7 @@
         <v>342.3694458007812</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>339.738</v>
       </c>
@@ -7078,7 +7120,7 @@
         <v>362.2123107910156</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>355.403</v>
       </c>
@@ -7098,7 +7140,7 @@
         <v>370.9662170410156</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>357.053</v>
       </c>
@@ -7118,7 +7160,7 @@
         <v>371.3813171386719</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>351.338</v>
       </c>
@@ -7138,7 +7180,7 @@
         <v>357.0897521972656</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>355.857</v>
       </c>
@@ -7158,7 +7200,7 @@
         <v>332.432861328125</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>358.131</v>
       </c>
@@ -7178,7 +7220,7 @@
         <v>372.3114013671875</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>357.205</v>
       </c>
@@ -7235,7 +7277,7 @@
         <v>358.182</v>
       </c>
       <c r="F18">
-        <v>358.9844970703125</v>
+        <v>358.9844665527344</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7255,7 +7297,7 @@
         <v>358.589</v>
       </c>
       <c r="F19">
-        <v>353.445068359375</v>
+        <v>353.4450378417969</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7815,7 +7857,7 @@
         <v>337.984</v>
       </c>
       <c r="F47">
-        <v>356.9924621582031</v>
+        <v>356.9924926757812</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7855,7 +7897,7 @@
         <v>338.103</v>
       </c>
       <c r="F49">
-        <v>348.4598999023438</v>
+        <v>348.4599304199219</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8035,7 +8077,7 @@
         <v>337.713</v>
       </c>
       <c r="F58">
-        <v>354.4867553710938</v>
+        <v>354.4867858886719</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8115,7 +8157,7 @@
         <v>338.852</v>
       </c>
       <c r="F62">
-        <v>360.6539916992188</v>
+        <v>360.6540222167969</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8175,7 +8217,7 @@
         <v>359.976</v>
       </c>
       <c r="F65">
-        <v>359.4041442871094</v>
+        <v>359.4041748046875</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8315,7 +8357,7 @@
         <v>360.962</v>
       </c>
       <c r="F72">
-        <v>359.5167236328125</v>
+        <v>359.5167541503906</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8415,7 +8457,7 @@
         <v>329.924</v>
       </c>
       <c r="F77">
-        <v>332.0450744628906</v>
+        <v>332.0450439453125</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8535,7 +8577,7 @@
         <v>355.441</v>
       </c>
       <c r="F83">
-        <v>344.6287536621094</v>
+        <v>344.6287231445312</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8615,7 +8657,7 @@
         <v>360.216</v>
       </c>
       <c r="F87">
-        <v>359.0806579589844</v>
+        <v>359.0806274414062</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8695,7 +8737,7 @@
         <v>335.753</v>
       </c>
       <c r="F91">
-        <v>355.0264892578125</v>
+        <v>355.0265197753906</v>
       </c>
     </row>
     <row r="92" spans="1:6">
